--- a/VitalSigns/TestBuild/ValueSet-NoDomainVitalSignsBloodpressureBodyPositionValueSet.xlsx
+++ b/VitalSigns/TestBuild/ValueSet-NoDomainVitalSignsBloodpressureBodyPositionValueSet.xlsx
@@ -24,13 +24,13 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://hl7.no/fhir/ValueSet/NoDomainVitalSignsBloodpressureBodyPositionValueSet</t>
+    <t>http://hl7.no/fhir/no-domain/vitalsigns/ValueSet/NoDomainVitalSignsBloodpressureBodyPositionValueSet</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>0.8.5</t>
+    <t>0.9.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-30T07:17:09+00:00</t>
+    <t>2025-06-10T12:24:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/VitalSigns/TestBuild/ValueSet-NoDomainVitalSignsBloodpressureBodyPositionValueSet.xlsx
+++ b/VitalSigns/TestBuild/ValueSet-NoDomainVitalSignsBloodpressureBodyPositionValueSet.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-10T12:24:45+00:00</t>
+    <t>2025-06-10T12:59:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/VitalSigns/TestBuild/ValueSet-NoDomainVitalSignsBloodpressureBodyPositionValueSet.xlsx
+++ b/VitalSigns/TestBuild/ValueSet-NoDomainVitalSignsBloodpressureBodyPositionValueSet.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-10T12:59:00+00:00</t>
+    <t>2025-06-10T16:00:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/VitalSigns/TestBuild/ValueSet-NoDomainVitalSignsBloodpressureBodyPositionValueSet.xlsx
+++ b/VitalSigns/TestBuild/ValueSet-NoDomainVitalSignsBloodpressureBodyPositionValueSet.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.9.0</t>
+    <t>0.9.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-10T16:00:45+00:00</t>
+    <t>2025-06-14T07:54:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/VitalSigns/TestBuild/ValueSet-NoDomainVitalSignsBloodpressureBodyPositionValueSet.xlsx
+++ b/VitalSigns/TestBuild/ValueSet-NoDomainVitalSignsBloodpressureBodyPositionValueSet.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.9.1</t>
+    <t>0.9.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-14T07:54:50+00:00</t>
+    <t>2025-09-04T11:54:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/VitalSigns/TestBuild/ValueSet-NoDomainVitalSignsBloodpressureBodyPositionValueSet.xlsx
+++ b/VitalSigns/TestBuild/ValueSet-NoDomainVitalSignsBloodpressureBodyPositionValueSet.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.9.0</t>
+    <t>0.9.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-04T11:54:03+00:00</t>
+    <t>2025-09-04T12:07:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/VitalSigns/TestBuild/ValueSet-NoDomainVitalSignsBloodpressureBodyPositionValueSet.xlsx
+++ b/VitalSigns/TestBuild/ValueSet-NoDomainVitalSignsBloodpressureBodyPositionValueSet.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.9.1</t>
+    <t>0.9.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-04T12:07:27+00:00</t>
+    <t>2025-09-04T12:18:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/VitalSigns/TestBuild/ValueSet-NoDomainVitalSignsBloodpressureBodyPositionValueSet.xlsx
+++ b/VitalSigns/TestBuild/ValueSet-NoDomainVitalSignsBloodpressureBodyPositionValueSet.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.9.0</t>
+    <t>0.9.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-04T12:18:12+00:00</t>
+    <t>2025-09-05T05:00:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/VitalSigns/TestBuild/ValueSet-NoDomainVitalSignsBloodpressureBodyPositionValueSet.xlsx
+++ b/VitalSigns/TestBuild/ValueSet-NoDomainVitalSignsBloodpressureBodyPositionValueSet.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.9.1</t>
+    <t>0.9.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-05T05:00:48+00:00</t>
+    <t>2025-09-05T14:59:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/VitalSigns/TestBuild/ValueSet-NoDomainVitalSignsBloodpressureBodyPositionValueSet.xlsx
+++ b/VitalSigns/TestBuild/ValueSet-NoDomainVitalSignsBloodpressureBodyPositionValueSet.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.9.0</t>
+    <t>0.9.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-05T14:59:25+00:00</t>
+    <t>2025-09-08T05:32:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/VitalSigns/TestBuild/ValueSet-NoDomainVitalSignsBloodpressureBodyPositionValueSet.xlsx
+++ b/VitalSigns/TestBuild/ValueSet-NoDomainVitalSignsBloodpressureBodyPositionValueSet.xlsx
@@ -8,12 +8,13 @@
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
     <sheet name="Include #0" r:id="rId4" sheetId="2"/>
+    <sheet name="Include #1" r:id="rId5" sheetId="3"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="42">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.9.1</t>
+    <t>0.9.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-08T05:32:48+00:00</t>
+    <t>2025-09-08T06:02:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -108,7 +109,13 @@
     <t>4801000202104</t>
   </si>
   <si>
-    <t>Liggende</t>
+    <t/>
+  </si>
+  <si>
+    <t>System URI</t>
+  </si>
+  <si>
+    <t>http://snomed.info/sct</t>
   </si>
   <si>
     <t>414585002</t>
@@ -133,15 +140,6 @@
   </si>
   <si>
     <t>Sittende</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>System URI</t>
-  </si>
-  <si>
-    <t>http://snomed.info/sct</t>
   </si>
 </sst>
 </file>
@@ -410,7 +408,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -432,56 +430,95 @@
       <c r="A2" t="s" s="2">
         <v>30</v>
       </c>
-      <c r="B2" t="s" s="2">
-        <v>31</v>
-      </c>
+      <c r="B2" s="2"/>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="30.703125" customWidth="true"/>
+    <col min="2" max="2" width="50.703125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
         <v>34</v>
       </c>
+      <c r="B2" t="s" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>38</v>
+      </c>
       <c r="B4" t="s" s="2">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="B8" t="s" s="2">
-        <v>42</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/VitalSigns/TestBuild/ValueSet-NoDomainVitalSignsBloodpressureBodyPositionValueSet.xlsx
+++ b/VitalSigns/TestBuild/ValueSet-NoDomainVitalSignsBloodpressureBodyPositionValueSet.xlsx
@@ -8,13 +8,12 @@
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
     <sheet name="Include #0" r:id="rId4" sheetId="2"/>
-    <sheet name="Include #1" r:id="rId5" sheetId="3"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="43">
   <si>
     <t>Property</t>
   </si>
@@ -31,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.9.0</t>
+    <t>0.9.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -61,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-08T06:02:14+00:00</t>
+    <t>2025-09-08T06:35:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -109,6 +108,33 @@
     <t>4801000202104</t>
   </si>
   <si>
+    <t>Liggende</t>
+  </si>
+  <si>
+    <t>414585002</t>
+  </si>
+  <si>
+    <t>Liggende lent mot venstre</t>
+  </si>
+  <si>
+    <t>272580008</t>
+  </si>
+  <si>
+    <t>Tilbakelent</t>
+  </si>
+  <si>
+    <t>10904000</t>
+  </si>
+  <si>
+    <t>oppreist stilling</t>
+  </si>
+  <si>
+    <t>33586001</t>
+  </si>
+  <si>
+    <t>Sittende</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
@@ -116,30 +142,6 @@
   </si>
   <si>
     <t>http://snomed.info/sct</t>
-  </si>
-  <si>
-    <t>414585002</t>
-  </si>
-  <si>
-    <t>Liggende lent mot venstre</t>
-  </si>
-  <si>
-    <t>272580008</t>
-  </si>
-  <si>
-    <t>Tilbakelent</t>
-  </si>
-  <si>
-    <t>10904000</t>
-  </si>
-  <si>
-    <t>oppreist stilling</t>
-  </si>
-  <si>
-    <t>33586001</t>
-  </si>
-  <si>
-    <t>Sittende</t>
   </si>
 </sst>
 </file>
@@ -408,7 +410,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -430,95 +432,56 @@
       <c r="A2" t="s" s="2">
         <v>30</v>
       </c>
-      <c r="B2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>31</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>33</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <cols>
-    <col min="1" max="1" width="30.703125" customWidth="true"/>
-    <col min="2" max="2" width="50.703125" customWidth="true"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="1">
-        <v>29</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="2">
-        <v>34</v>
-      </c>
-      <c r="B2" t="s" s="2">
         <v>35</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="B3" t="s" s="2">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="B4" t="s" s="2">
-        <v>39</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>31</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>33</v>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="B8" t="s" s="2">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/VitalSigns/TestBuild/ValueSet-NoDomainVitalSignsBloodpressureBodyPositionValueSet.xlsx
+++ b/VitalSigns/TestBuild/ValueSet-NoDomainVitalSignsBloodpressureBodyPositionValueSet.xlsx
@@ -8,12 +8,13 @@
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
     <sheet name="Include #0" r:id="rId4" sheetId="2"/>
+    <sheet name="Include #1" r:id="rId5" sheetId="3"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="43">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.9.1</t>
+    <t>0.9.2</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-08T06:35:20+00:00</t>
+    <t>2025-09-08T06:43:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -111,6 +112,15 @@
     <t>Liggende</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
+    <t>System URI</t>
+  </si>
+  <si>
+    <t>http://snomed.info/sct</t>
+  </si>
+  <si>
     <t>414585002</t>
   </si>
   <si>
@@ -133,15 +143,6 @@
   </si>
   <si>
     <t>Sittende</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>System URI</t>
-  </si>
-  <si>
-    <t>http://snomed.info/sct</t>
   </si>
 </sst>
 </file>
@@ -410,7 +411,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -441,47 +442,88 @@
         <v>32</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="B4" t="s" s="2">
         <v>34</v>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="30.703125" customWidth="true"/>
+    <col min="2" max="2" width="50.703125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>39</v>
+      </c>
       <c r="B4" t="s" s="2">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="B8" t="s" s="2">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/VitalSigns/TestBuild/ValueSet-NoDomainVitalSignsBloodpressureBodyPositionValueSet.xlsx
+++ b/VitalSigns/TestBuild/ValueSet-NoDomainVitalSignsBloodpressureBodyPositionValueSet.xlsx
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.9.2</t>
+    <t>0.9.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-08T06:43:38+00:00</t>
+    <t>2025-09-08T08:35:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/VitalSigns/TestBuild/ValueSet-NoDomainVitalSignsBloodpressureBodyPositionValueSet.xlsx
+++ b/VitalSigns/TestBuild/ValueSet-NoDomainVitalSignsBloodpressureBodyPositionValueSet.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-08T08:35:21+00:00</t>
+    <t>2025-09-08T08:52:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -109,7 +109,7 @@
     <t>4801000202104</t>
   </si>
   <si>
-    <t>Liggende</t>
+    <t>Liggende flatt</t>
   </si>
   <si>
     <t/>
